--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F21C1E-B280-4471-8419-88C71C35FBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495F1AF-D5AD-47CC-BF3B-1F974730FCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,11 +91,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>price:float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack:int</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2,6,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5,8,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -435,124 +503,188 @@
     <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>5.2</v>
-      </c>
-      <c r="F2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>10.5</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>5.2</v>
       </c>
       <c r="F4">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>29.5</v>
+        <v>10.5</v>
       </c>
       <c r="F5">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
         <v>15</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
       </c>
       <c r="F6">
         <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>29.5</v>
+      </c>
+      <c r="F7">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
